--- a/case_description/evaluation_artefacts/EvaluationSheet.xlsx
+++ b/case_description/evaluation_artefacts/EvaluationSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\artist\04_publications\TTC2015\submission\case_description\evaluation_artefacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\cra-ttc2016\case_description\evaluation_artefacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -885,6 +885,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -914,90 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,10 +1371,10 @@
       <c r="E2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="81" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="48" t="s">
@@ -1393,7 +1393,7 @@
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="71"/>
       <c r="H3" s="49" t="s">
         <v>15</v>
@@ -1411,7 +1411,7 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="71"/>
       <c r="H4" s="50" t="s">
         <v>15</v>
@@ -1429,7 +1429,7 @@
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="71"/>
       <c r="H5" s="50" t="s">
         <v>15</v>
@@ -1447,19 +1447,19 @@
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="71"/>
       <c r="H6" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="15">
         <f>COUNTIF(E2:E6,"y")*2</f>
         <v>10</v>
@@ -1469,19 +1469,19 @@
       <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="11">
         <f>E7*B2</f>
         <v>5</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
@@ -1499,10 +1499,10 @@
       <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="81" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="48" t="s">
@@ -1521,7 +1521,7 @@
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="66"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="71"/>
       <c r="H10" s="49" t="s">
         <v>15</v>
@@ -1539,7 +1539,7 @@
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="71"/>
       <c r="H11" s="49" t="s">
         <v>15</v>
@@ -1557,7 +1557,7 @@
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="66"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="71"/>
       <c r="H12" s="49" t="s">
         <v>15</v>
@@ -1575,19 +1575,19 @@
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="71"/>
       <c r="H13" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="15">
         <f>COUNTIF(E9:E13,"y")*2</f>
         <v>10</v>
@@ -1597,26 +1597,26 @@
       <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="11">
         <f>E14*B9</f>
         <v>5</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>1</v>
@@ -1627,7 +1627,7 @@
       <c r="E16" s="4">
         <v>10</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="71" t="s">
@@ -1649,7 +1649,7 @@
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="66"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="71"/>
       <c r="H17" s="49">
         <v>-0.23330000000000001</v>
@@ -1667,7 +1667,7 @@
       <c r="E18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="66"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="71"/>
       <c r="H18" s="49">
         <v>-6.4714</v>
@@ -1685,7 +1685,7 @@
       <c r="E19" s="4">
         <v>10</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="71"/>
       <c r="H19" s="49">
         <v>-23.63381</v>
@@ -1703,19 +1703,19 @@
       <c r="E20" s="16">
         <v>10</v>
       </c>
-      <c r="F20" s="66"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="71"/>
       <c r="H20" s="52">
         <v>-66.655450000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="15">
         <f>(D16*E16+D17*E17+D18*E18+D19*E19+D20*E20)/SUM(D16:D20)</f>
         <v>10</v>
@@ -1725,93 +1725,93 @@
       <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="11">
         <f>E21*B16</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="25">
-        <v>2.5</v>
-      </c>
-      <c r="C23" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="90">
         <v>1</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="84">
         <v>10</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="69" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="84" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="29"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="66"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="71"/>
-      <c r="H24" s="57"/>
+      <c r="H24" s="85"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="29"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="66"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="71"/>
-      <c r="H25" s="57"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="66"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="57"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="66"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="71"/>
-      <c r="H27" s="58"/>
+      <c r="H27" s="86"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="15">
         <f>(D23*E23+D24*E24+D25*E25+D26*E26+D27*E27)/SUM(D23:D27)</f>
         <v>10</v>
@@ -1821,26 +1821,26 @@
       <c r="H28" s="51"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="10">
         <f>E28*B23</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
     <row r="30" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C30" s="37" t="s">
         <v>10</v>
@@ -1862,12 +1862,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="15">
         <f>E30</f>
         <v>10</v>
@@ -1877,19 +1877,19 @@
       <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="10">
         <f>E31*B30</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
@@ -1907,10 +1907,10 @@
       <c r="E33" s="3">
         <v>10</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="70" t="s">
         <v>33</v>
       </c>
       <c r="H33" s="54" t="s">
@@ -1929,7 +1929,7 @@
       <c r="E34" s="4">
         <v>10</v>
       </c>
-      <c r="F34" s="66"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="71"/>
       <c r="H34" s="49" t="s">
         <v>40</v>
@@ -1947,7 +1947,7 @@
       <c r="E35" s="4">
         <v>10</v>
       </c>
-      <c r="F35" s="66"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="71"/>
       <c r="H35" s="49" t="s">
         <v>39</v>
@@ -1965,7 +1965,7 @@
       <c r="E36" s="4">
         <v>10</v>
       </c>
-      <c r="F36" s="66"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="71"/>
       <c r="H36" s="49" t="s">
         <v>38</v>
@@ -1983,19 +1983,19 @@
       <c r="E37" s="4">
         <v>10</v>
       </c>
-      <c r="F37" s="66"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="71"/>
       <c r="H37" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="90"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="15">
         <f>(D33*E33+D34*E34+D35*E35+D36*E36+D37*E37)/SUM(D33:D37)</f>
         <v>10</v>
@@ -2005,37 +2005,60 @@
       <c r="H38" s="55"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="11">
         <f>E38*B33</f>
         <v>20</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="75"/>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="19">
         <f>E39+E32+E29+E22+E15+E8</f>
         <v>100</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A28:D28"/>
@@ -2047,29 +2070,6 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="F9:F13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
